--- a/results/general/category_clientele_cross_table.xlsx
+++ b/results/general/category_clientele_cross_table.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\UdeM\Maîtrise\Données\labrri_ocpm_systemic_racism\results\general\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5533BCD4-6C84-473B-83AB-F95046B6C8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,11 +130,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,12 +150,68 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -141,11 +221,72 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -153,10 +294,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -164,13 +344,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +396,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,6 +430,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,9 +465,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,534 +641,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="288" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
         <v>4</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="R2" s="7">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7">
         <v>3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7">
         <v>3</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7">
         <v>7</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <v>28</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7">
         <v>3</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>7</v>
       </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="R4" s="7">
+        <v>1</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>2</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>2</v>
+      </c>
+      <c r="U7" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="13">
         <v>11</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
+      <c r="K8" s="13">
+        <v>2</v>
+      </c>
+      <c r="L8" s="13">
         <v>6</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
         <v>4</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="13">
         <v>5</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="13">
         <v>6</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="13">
         <v>18</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="13">
         <v>33</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="13">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
+      <c r="T8" s="13">
+        <v>2</v>
+      </c>
+      <c r="U8" s="14">
         <v>110</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:T7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:T8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>